--- a/LET Latchup Calculation Tool/Upset_rates.xlsx
+++ b/LET Latchup Calculation Tool/Upset_rates.xlsx
@@ -85,22 +85,22 @@
     <t>SSO</t>
   </si>
   <si>
-    <t>101016563 ± 20102</t>
-  </si>
-  <si>
-    <t>99234419 ± 19924</t>
-  </si>
-  <si>
-    <t>94929217 ± 19486</t>
-  </si>
-  <si>
-    <t>105121257 ± 20505</t>
-  </si>
-  <si>
-    <t>103821820 ± 20379</t>
-  </si>
-  <si>
-    <t>100729220 ± 20072</t>
+    <t>8.205981970096895e-05 Errors per year, 0.08% chance of more than one upset</t>
+  </si>
+  <si>
+    <t>0.00018601190913996422 Errors per year, 0.19% chance of more than one upset</t>
+  </si>
+  <si>
+    <t>9.4418188429266e-05 Errors per year, 0.09% chance of more than one upset</t>
+  </si>
+  <si>
+    <t>2.5323459883030062e-05 Errors per year, 0.03% chance of more than one upset</t>
+  </si>
+  <si>
+    <t>1.893764084716114e-05 Errors per year, 0.02% chance of more than one upset</t>
+  </si>
+  <si>
+    <t>1.8184660090529732e-05 Errors per year, 0.02% chance of more than one upset</t>
   </si>
 </sst>
 </file>
@@ -493,19 +493,19 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.045</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2">
-        <v>3.391165693984687E-11</v>
+        <v>2.508111436994902E-12</v>
       </c>
       <c r="F2">
-        <v>6.152546207275237E-08</v>
+        <v>9.226073142519613E-14</v>
       </c>
       <c r="G2">
-        <v>6.155937372969222E-08</v>
+        <v>2.600372168420098E-12</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
@@ -516,19 +516,19 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.045</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3">
-        <v>6.145334173073306E-11</v>
+        <v>5.806710023885051E-12</v>
       </c>
       <c r="F3">
-        <v>6.041188408895424E-08</v>
+        <v>8.777272400404173E-14</v>
       </c>
       <c r="G3">
-        <v>6.047333743068497E-08</v>
+        <v>5.894482747889093E-12</v>
       </c>
       <c r="H3" t="s">
         <v>24</v>
@@ -545,13 +545,13 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>3.215773290079735E-11</v>
+        <v>2.905483641046052E-12</v>
       </c>
       <c r="F4">
-        <v>5.781759505290295E-08</v>
+        <v>8.650964237580709E-14</v>
       </c>
       <c r="G4">
-        <v>5.784975278580375E-08</v>
+        <v>2.991993283421859E-12</v>
       </c>
       <c r="H4" t="s">
         <v>25</v>
@@ -562,19 +562,19 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1439883374169847</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1.933617829962902E-11</v>
+        <v>7.047410394846198E-13</v>
       </c>
       <c r="F5">
-        <v>6.404143377933043E-08</v>
+        <v>9.772745883644941E-14</v>
       </c>
       <c r="G5">
-        <v>6.406076995763006E-08</v>
+        <v>8.024684983210692E-13</v>
       </c>
       <c r="H5" t="s">
         <v>26</v>
@@ -591,13 +591,13 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1.822555213327594E-11</v>
+        <v>5.036384073998056E-13</v>
       </c>
       <c r="F6">
-        <v>6.325066882102368E-08</v>
+        <v>9.647154134179458E-14</v>
       </c>
       <c r="G6">
-        <v>6.326889437315696E-08</v>
+        <v>6.001099487416002E-13</v>
       </c>
       <c r="H6" t="s">
         <v>27</v>
@@ -608,19 +608,19 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>52000000</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1.765412367308423E-11</v>
+        <v>4.825912367015415E-13</v>
       </c>
       <c r="F7">
-        <v>6.136661363827356E-08</v>
+        <v>9.36577017425052E-14</v>
       </c>
       <c r="G7">
-        <v>6.138426776194664E-08</v>
+        <v>5.762489384440466E-13</v>
       </c>
       <c r="H7" t="s">
         <v>28</v>
@@ -647,7 +647,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>1.5E-14</v>
+        <v>1E-14</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -655,7 +655,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
